--- a/public/archivos/Formato_contactos_wasapping.xlsx
+++ b/public/archivos/Formato_contactos_wasapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/510b1f02c86a25ee/Escritorio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhoma\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{B3BCB88A-86EA-4F17-B101-54355242E5B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{4E5BFFF3-AC7A-4B78-B5FA-12BB5C7B4E50}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C43FA5-F154-4D24-A57C-486FE504B6A2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="20490" windowHeight="7680" xr2:uid="{A0AEA0D9-F758-4448-9D04-1C291EBE6ED9}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" xr2:uid="{A0AEA0D9-F758-4448-9D04-1C291EBE6ED9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Nombre</t>
   </si>
@@ -41,10 +41,13 @@
     <t>DNI</t>
   </si>
   <si>
-    <t>RUC</t>
-  </si>
-  <si>
-    <t>correo</t>
+    <t>Curso</t>
+  </si>
+  <si>
+    <t>Ubicación</t>
+  </si>
+  <si>
+    <t>Correo</t>
   </si>
 </sst>
 </file>
@@ -407,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EACDF212-91B2-44A7-A6B6-D9912DB9ACAE}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -418,7 +421,7 @@
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -432,10 +435,13 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E2" s="1"/>
     </row>
   </sheetData>
